--- a/tests/integration_tests/baseline_results/Baseline_test_scenario_1.xlsx
+++ b/tests/integration_tests/baseline_results/Baseline_test_scenario_1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10462" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10463" uniqueCount="1294">
   <si>
     <t>value</t>
   </si>
@@ -3877,9 +3877,6 @@
     <t>solver_name</t>
   </si>
   <si>
-    <t>gurobi</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -3914,6 +3911,12 @@
   </si>
   <si>
     <t>total_qty_cleared [%]</t>
+  </si>
+  <si>
+    <t>glpk</t>
+  </si>
+  <si>
+    <t>design_variable</t>
   </si>
 </sst>
 </file>
@@ -3972,9 +3975,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4283,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4425,7 +4431,7 @@
         <v>1279</v>
       </c>
       <c r="B17" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -4453,6 +4459,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>1293</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -4675,7 +4684,7 @@
         <v>75</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>76</v>
@@ -4769,7 +4778,7 @@
         <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -19714,7 +19723,7 @@
         <v>675</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>125</v>
@@ -19759,7 +19768,7 @@
         <v>677</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -20292,7 +20301,7 @@
         <v>675</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>125</v>
@@ -20337,7 +20346,7 @@
         <v>677</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -20876,7 +20885,7 @@
         <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>135</v>
@@ -21301,7 +21310,7 @@
         <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>135</v>
@@ -22089,7 +22098,7 @@
         <v>675</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>125</v>
@@ -22131,7 +22140,7 @@
         <v>677</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -29456,7 +29465,7 @@
         <v>675</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>125</v>
@@ -29498,7 +29507,7 @@
         <v>677</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -32914,7 +32923,7 @@
         <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -33146,7 +33155,7 @@
         <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -33283,7 +33292,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -33303,7 +33312,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -33321,7 +33330,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -33330,7 +33339,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -33339,7 +33348,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -33348,7 +33357,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -33357,7 +33366,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -33366,7 +33375,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -33375,7 +33384,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -33387,7 +33396,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -33405,7 +33414,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -33423,7 +33432,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -33441,7 +33450,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -33459,7 +33468,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -33477,7 +33486,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -33495,7 +33504,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -33513,7 +33522,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -33531,7 +33540,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -33549,7 +33558,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -33561,7 +33570,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -33570,7 +33579,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -33579,7 +33588,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -33588,7 +33597,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -33597,7 +33606,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -33606,7 +33615,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -33615,7 +33624,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -33624,7 +33633,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -33633,7 +33642,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -33642,7 +33651,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -33651,7 +33660,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -33660,7 +33669,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -33669,7 +33678,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -33678,7 +33687,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -33687,7 +33696,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -33696,7 +33705,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -33705,7 +33714,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -33714,7 +33723,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -33723,7 +33732,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -33732,7 +33741,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -33741,7 +33750,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -33750,7 +33759,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -33759,7 +33768,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -33768,7 +33777,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -33777,7 +33786,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -33786,7 +33795,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -33795,7 +33804,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
@@ -33804,7 +33813,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -33813,7 +33822,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -33822,7 +33831,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -33831,7 +33840,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -33840,7 +33849,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -33849,7 +33858,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -33858,7 +33867,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
@@ -33867,7 +33876,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
@@ -33876,7 +33885,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -33885,7 +33894,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
@@ -33894,7 +33903,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>57</v>
       </c>
@@ -33903,7 +33912,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -33912,7 +33921,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -33921,7 +33930,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -33930,7 +33939,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
@@ -33939,7 +33948,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>62</v>
       </c>
@@ -33948,7 +33957,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>63</v>
       </c>
@@ -33957,7 +33966,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>64</v>
       </c>
@@ -33966,7 +33975,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -33975,7 +33984,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -33984,7 +33993,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
@@ -33993,7 +34002,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
@@ -34002,7 +34011,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -34011,7 +34020,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -34020,7 +34029,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
@@ -34029,7 +34038,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
@@ -34038,7 +34047,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -34047,7 +34056,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>74</v>
       </c>
@@ -34056,7 +34065,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
@@ -34065,7 +34074,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
@@ -34074,7 +34083,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>77</v>
       </c>
@@ -34083,7 +34092,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
@@ -34092,7 +34101,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
@@ -34101,7 +34110,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
@@ -34110,7 +34119,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
@@ -34119,7 +34128,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
@@ -34128,7 +34137,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
@@ -34137,7 +34146,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
@@ -34146,7 +34155,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
@@ -34155,7 +34164,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
@@ -34164,7 +34173,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
@@ -34173,7 +34182,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
@@ -34182,7 +34191,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
@@ -34191,7 +34200,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
@@ -34200,7 +34209,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
@@ -34209,7 +34218,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
@@ -34218,7 +34227,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
@@ -34227,7 +34236,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
@@ -34236,7 +34245,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>95</v>
       </c>
@@ -34245,7 +34254,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -34266,23 +34275,23 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1287</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>78</v>
@@ -34303,204 +34312,207 @@
         <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1291</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>18.021739130434781</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>16.01063829787234</v>
-      </c>
-      <c r="D2">
-        <v>12.5</v>
-      </c>
-      <c r="E2">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>66.857142857142861</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>34</v>
-      </c>
-      <c r="I2">
-        <v>34</v>
-      </c>
-      <c r="J2">
-        <v>106.25</v>
-      </c>
-      <c r="K2">
-        <v>4.8769572376914212E-2</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>771.5</v>
-      </c>
-      <c r="N2">
-        <v>6.25</v>
-      </c>
-      <c r="O2">
-        <v>6.25</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.17531556802244039</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>54.111111111111107</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>81.032608695652172</v>
+        <v>145</v>
       </c>
       <c r="D3">
+        <v>145</v>
+      </c>
+      <c r="E3">
+        <v>145</v>
+      </c>
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>60.5</v>
-      </c>
-      <c r="G3">
-        <v>10.666666666666661</v>
-      </c>
       <c r="H3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>8955</v>
+        <v>208800</v>
       </c>
       <c r="K3">
-        <v>4.1104143118613337</v>
+        <v>95.840816115761754</v>
       </c>
       <c r="L3">
-        <v>3552.5</v>
+        <v>3480</v>
       </c>
       <c r="M3">
-        <v>2235</v>
+        <v>4800</v>
       </c>
       <c r="N3">
-        <v>45</v>
+        <v>3480</v>
       </c>
       <c r="O3">
-        <v>112.5</v>
+        <v>3480</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.2089761570827489</v>
+        <v>97.615708274894814</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>18.021739130434781</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>16.01063829787234</v>
+      </c>
+      <c r="D4">
+        <v>12.5</v>
+      </c>
+      <c r="E4">
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>66.857142857142861</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>106.25</v>
+      </c>
+      <c r="K4">
+        <v>4.8769572376914212E-2</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>771.5</v>
+      </c>
+      <c r="N4">
+        <v>6.25</v>
+      </c>
+      <c r="O4">
+        <v>6.25</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.17531556802244039</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>54.111111111111107</v>
       </c>
       <c r="C5">
-        <v>145</v>
+        <v>81.032608695652172</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>60.5</v>
+      </c>
+      <c r="G5">
+        <v>10.666666666666661</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J5">
-        <v>208800</v>
+        <v>8955</v>
       </c>
       <c r="K5">
-        <v>95.840816115761754</v>
+        <v>4.1104143118613337</v>
       </c>
       <c r="L5">
-        <v>3480</v>
+        <v>3552.5</v>
       </c>
       <c r="M5">
-        <v>4800</v>
+        <v>2235</v>
       </c>
       <c r="N5">
-        <v>3480</v>
+        <v>45</v>
       </c>
       <c r="O5">
-        <v>3480</v>
+        <v>112.5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q5">
-        <v>97.615708274894814</v>
+        <v>2.2089761570827489</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Q5">
+    <sortCondition ref="A2:A5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34531,7 +34543,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -34548,7 +34560,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -34563,7 +34575,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -34578,7 +34590,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -34593,7 +34605,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -34608,7 +34620,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -34623,7 +34635,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -34638,7 +34650,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -34653,7 +34665,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -34668,7 +34680,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -34683,7 +34695,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -34698,7 +34710,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -34713,7 +34725,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -34728,7 +34740,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -34743,7 +34755,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -34758,7 +34770,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -34773,7 +34785,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -34788,7 +34800,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -34803,7 +34815,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -34818,7 +34830,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -34833,7 +34845,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -34848,7 +34860,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -34863,7 +34875,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -34878,7 +34890,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -34893,7 +34905,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -34908,7 +34920,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -34923,7 +34935,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -34938,7 +34950,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -34953,7 +34965,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -34968,7 +34980,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -34983,7 +34995,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -34998,7 +35010,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -35013,7 +35025,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -35028,7 +35040,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -35043,7 +35055,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -35058,7 +35070,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -35073,7 +35085,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -35088,7 +35100,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -35103,7 +35115,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -35118,7 +35130,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -35133,7 +35145,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -35148,7 +35160,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -35163,7 +35175,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -35178,7 +35190,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -35193,7 +35205,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -35208,7 +35220,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
@@ -35223,7 +35235,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -35238,7 +35250,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -35253,7 +35265,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -35268,7 +35280,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -35283,7 +35295,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -35298,7 +35310,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -35313,7 +35325,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
@@ -35328,7 +35340,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
@@ -35343,7 +35355,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -35358,7 +35370,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
@@ -35373,7 +35385,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>57</v>
       </c>
@@ -35388,7 +35400,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -35403,7 +35415,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -35418,7 +35430,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -35433,7 +35445,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
@@ -35448,7 +35460,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>62</v>
       </c>
@@ -35463,7 +35475,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>63</v>
       </c>
@@ -35478,7 +35490,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>64</v>
       </c>
@@ -35493,7 +35505,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -35508,7 +35520,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -35523,7 +35535,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
@@ -35538,7 +35550,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
@@ -35553,7 +35565,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -35568,7 +35580,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -35583,7 +35595,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
@@ -35598,7 +35610,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
@@ -35613,7 +35625,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -35628,7 +35640,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>74</v>
       </c>
@@ -35643,7 +35655,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
@@ -35658,7 +35670,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
@@ -35673,7 +35685,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>77</v>
       </c>
@@ -35688,7 +35700,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
@@ -35703,7 +35715,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
@@ -35718,7 +35730,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
@@ -35733,7 +35745,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
@@ -35748,7 +35760,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
@@ -35763,7 +35775,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
@@ -35778,7 +35790,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
@@ -35793,7 +35805,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
@@ -35808,7 +35820,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
@@ -35823,7 +35835,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
@@ -35838,7 +35850,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
@@ -35853,7 +35865,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
@@ -35868,7 +35880,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
@@ -35883,7 +35895,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
@@ -35898,7 +35910,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
@@ -35913,7 +35925,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
@@ -35928,7 +35940,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
@@ -35943,7 +35955,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>95</v>
       </c>
@@ -35958,7 +35970,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -35990,24 +36002,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
@@ -36063,7 +36075,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -36113,7 +36125,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -36161,7 +36173,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -36209,7 +36221,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -36257,7 +36269,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -36305,7 +36317,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -36353,7 +36365,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -36401,7 +36413,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -36449,7 +36461,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -36497,7 +36509,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -36545,7 +36557,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -36593,7 +36605,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -36641,7 +36653,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -36689,7 +36701,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -36737,7 +36749,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -36785,7 +36797,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -36833,7 +36845,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -36881,7 +36893,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -36929,7 +36941,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -36977,7 +36989,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -37025,7 +37037,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -37073,7 +37085,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -37121,7 +37133,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -37169,7 +37181,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -37217,7 +37229,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -37265,7 +37277,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -37313,7 +37325,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -37361,7 +37373,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -37409,7 +37421,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -37457,7 +37469,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -37505,7 +37517,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -37553,7 +37565,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -37601,7 +37613,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -37649,7 +37661,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -37697,7 +37709,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -37745,7 +37757,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -37793,7 +37805,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -37841,7 +37853,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -37889,7 +37901,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -37937,7 +37949,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -37985,7 +37997,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -38033,7 +38045,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -38081,7 +38093,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -38129,7 +38141,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -38177,7 +38189,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -38225,7 +38237,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -38273,7 +38285,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -38321,7 +38333,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -38369,7 +38381,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -38417,7 +38429,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -38465,7 +38477,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -38513,7 +38525,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -38561,7 +38573,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -38609,7 +38621,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -38657,7 +38669,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -38705,7 +38717,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -38753,7 +38765,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -38801,7 +38813,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -38849,7 +38861,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -38897,7 +38909,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -38945,7 +38957,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -38993,7 +39005,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -39041,7 +39053,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -39089,7 +39101,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -39137,7 +39149,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -39185,7 +39197,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -39233,7 +39245,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -39281,7 +39293,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -39329,7 +39341,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -39377,7 +39389,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -39425,7 +39437,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -39473,7 +39485,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -39521,7 +39533,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -39569,7 +39581,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -39617,7 +39629,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -39665,7 +39677,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -39713,7 +39725,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -39761,7 +39773,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>78</v>
       </c>
@@ -39809,7 +39821,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>79</v>
       </c>
@@ -39857,7 +39869,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>80</v>
       </c>
@@ -39905,7 +39917,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>81</v>
       </c>
@@ -39953,7 +39965,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>82</v>
       </c>
@@ -40001,7 +40013,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>83</v>
       </c>
@@ -40049,7 +40061,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>84</v>
       </c>
@@ -40097,7 +40109,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>85</v>
       </c>
@@ -40145,7 +40157,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>86</v>
       </c>
@@ -40193,7 +40205,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>87</v>
       </c>
@@ -40241,7 +40253,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>88</v>
       </c>
@@ -40289,7 +40301,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>89</v>
       </c>
@@ -40337,7 +40349,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>90</v>
       </c>
@@ -40385,7 +40397,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>91</v>
       </c>
@@ -40433,7 +40445,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>92</v>
       </c>
@@ -40481,7 +40493,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>93</v>
       </c>
@@ -40529,7 +40541,7 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>94</v>
       </c>
@@ -40577,7 +40589,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>95</v>
       </c>
@@ -40625,7 +40637,7 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>96</v>
       </c>
@@ -40692,26 +40704,26 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
@@ -40773,7 +40785,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -40811,7 +40823,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -40847,7 +40859,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -40877,7 +40889,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -40907,7 +40919,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -40937,7 +40949,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -40967,7 +40979,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -40997,7 +41009,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -41027,7 +41039,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -41060,7 +41072,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -41096,7 +41108,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -41132,7 +41144,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -41168,7 +41180,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -41204,7 +41216,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -41240,7 +41252,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -41276,7 +41288,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -41312,7 +41324,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -41348,7 +41360,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -41384,7 +41396,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -41417,7 +41429,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -41447,7 +41459,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -41477,7 +41489,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -41507,7 +41519,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -41537,7 +41549,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -41567,7 +41579,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -41597,7 +41609,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -41627,7 +41639,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -41657,7 +41669,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -41687,7 +41699,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -41717,7 +41729,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -41747,7 +41759,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -41777,7 +41789,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -41807,7 +41819,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -41837,7 +41849,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -41867,7 +41879,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -41897,7 +41909,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -41927,7 +41939,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -41957,7 +41969,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -41987,7 +41999,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -42017,7 +42029,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -42047,7 +42059,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -42077,7 +42089,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -42107,7 +42119,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -42137,7 +42149,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -42167,7 +42179,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -42197,7 +42209,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -42227,7 +42239,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -42257,7 +42269,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -42287,7 +42299,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -42317,7 +42329,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -42347,7 +42359,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -42377,7 +42389,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -42407,7 +42419,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -42437,7 +42449,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -42467,7 +42479,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -42497,7 +42509,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -42527,7 +42539,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -42557,7 +42569,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -42587,7 +42599,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -42617,7 +42629,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -42647,7 +42659,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -42677,7 +42689,7 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -42707,7 +42719,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -42737,7 +42749,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -42767,7 +42779,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -42797,7 +42809,7 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -42827,7 +42839,7 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -42857,7 +42869,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -42887,7 +42899,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -42917,7 +42929,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -42947,7 +42959,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -42977,7 +42989,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -43007,7 +43019,7 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -43037,7 +43049,7 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -43067,7 +43079,7 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -43097,7 +43109,7 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -43127,7 +43139,7 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -43157,7 +43169,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>78</v>
       </c>
@@ -43187,7 +43199,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>79</v>
       </c>
@@ -43217,7 +43229,7 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>80</v>
       </c>
@@ -43247,7 +43259,7 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>81</v>
       </c>
@@ -43277,7 +43289,7 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>82</v>
       </c>
@@ -43307,7 +43319,7 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>83</v>
       </c>
@@ -43337,7 +43349,7 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>84</v>
       </c>
@@ -43367,7 +43379,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>85</v>
       </c>
@@ -43397,7 +43409,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>86</v>
       </c>
@@ -43427,7 +43439,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>87</v>
       </c>
@@ -43457,7 +43469,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>88</v>
       </c>
@@ -43487,7 +43499,7 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>89</v>
       </c>
@@ -43517,7 +43529,7 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>90</v>
       </c>
@@ -43547,7 +43559,7 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>91</v>
       </c>
@@ -43577,7 +43589,7 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>92</v>
       </c>
@@ -43607,7 +43619,7 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>93</v>
       </c>
@@ -43637,7 +43649,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>94</v>
       </c>
@@ -43667,7 +43679,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1">
         <v>95</v>
       </c>
@@ -43697,7 +43709,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1">
         <v>96</v>
       </c>
@@ -44160,7 +44172,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -44168,55 +44180,55 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -44249,7 +44261,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -44282,7 +44294,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -44315,7 +44327,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -44348,7 +44360,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -44381,7 +44393,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -44414,7 +44426,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -44447,7 +44459,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -44480,7 +44492,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -44513,469 +44525,469 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -45036,7 +45048,7 @@
         <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -58506,7 +58518,7 @@
         <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -68479,7 +68491,7 @@
         <v>675</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>125</v>
@@ -68518,7 +68530,7 @@
         <v>677</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -68659,7 +68671,7 @@
         <v>675</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>125</v>
@@ -68698,7 +68710,7 @@
         <v>677</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -68866,7 +68878,7 @@
         <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
